--- a/uploads/sms.xlsx
+++ b/uploads/sms.xlsx
@@ -13,33 +13,29 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>text 2</t>
-  </si>
-  <si>
-    <t>text 3</t>
-  </si>
-  <si>
-    <t>category 1</t>
+    <t>سلام\nدوست عزیزم %s تولدت مبارک</t>
+  </si>
+  <si>
+    <t>تولد</t>
+  </si>
+  <si>
+    <t>ایشالا به همه آرزوهات برسی\nزاد روزت فرخوانده\nاز طرف %s</t>
+  </si>
+  <si>
+    <t>%s عزیز سلام. برای شما یک فاکتور درتاریخ %s ایجاد شده است.</t>
+  </si>
+  <si>
+    <t>فاکتور</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font/>
@@ -58,14 +54,11 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -283,6 +276,9 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="42.14"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
@@ -304,7 +300,7 @@
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
